--- a/short/lowry/lowry.xlsx
+++ b/short/lowry/lowry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjur\OneDrive - Hanzehogeschool Groningen\2020-2021\algemeen\umcg_practicum\website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjur\OneDrive - Hanzehogeschool Groningen\web_pages\team_lab_course\Labcourses\short\lowry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D06633-93B0-4CA8-98E5-A2D246BAA937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC81B44-C7EA-423A-9BD8-0C5BE9F59141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,7 +158,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -239,17 +239,17 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-NL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$16</c:f>
+              <c:f>Sheet1!$B$5:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -263,27 +263,33 @@
                   <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>4.1669999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1669999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.125</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>0.125</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.17499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.17499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -291,45 +297,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$16</c:f>
+              <c:f>Sheet1!$C$5:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3.6999999999999998E-2</c:v>
+                  <c:v>6.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1000000000000002E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.159</c:v>
+                  <c:v>0.17199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17599999999999999</c:v>
+                  <c:v>0.16500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35499999999999998</c:v>
+                  <c:v>0.20399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36299999999999999</c:v>
+                  <c:v>0.191</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.501</c:v>
+                  <c:v>0.23499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.501</c:v>
+                  <c:v>0.249</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.624</c:v>
+                  <c:v>0.32900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.60699999999999998</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.76900000000000002</c:v>
+                  <c:v>0.53900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.76100000000000001</c:v>
+                  <c:v>0.53600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.81200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.82099999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -429,7 +441,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -467,7 +479,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1907443168"/>
@@ -546,7 +558,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -584,7 +596,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1916526384"/>
@@ -632,7 +644,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1503,10 +1515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:C16"/>
+  <dimension ref="B4:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1528,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>3.6999999999999998E-2</v>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
@@ -1536,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>4.1000000000000002E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
@@ -1544,7 +1556,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C7" s="1">
-        <v>0.159</v>
+        <v>0.17199999999999999</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
@@ -1552,71 +1564,87 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C8" s="1">
-        <v>0.17599999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
-        <v>7.4999999999999997E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C9" s="1">
-        <v>0.35499999999999998</v>
+        <v>0.20399999999999999</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
-        <v>7.4999999999999997E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C10" s="1">
-        <v>0.36299999999999999</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
-        <v>0.125</v>
+        <v>4.1669999999999999E-2</v>
       </c>
       <c r="C11" s="1">
-        <v>0.501</v>
+        <v>0.23499999999999999</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
-        <v>0.125</v>
+        <v>4.1669999999999999E-2</v>
       </c>
       <c r="C12" s="1">
-        <v>0.501</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
-        <v>0.17499999999999999</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C13" s="1">
-        <v>0.624</v>
+        <v>0.32900000000000001</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
-        <v>0.17499999999999999</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C14" s="1">
-        <v>0.60699999999999998</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="C15" s="1">
-        <v>0.76900000000000002</v>
+        <v>0.53900000000000003</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.53600000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="1">
         <v>0.25</v>
       </c>
-      <c r="C16" s="1">
-        <v>0.76100000000000001</v>
+      <c r="C17" s="1">
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.82099999999999995</v>
       </c>
     </row>
   </sheetData>
